--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E94CC5-7DAF-4B6F-8735-BE67D3321B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144323B-B110-442C-9B92-5A663DD5297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
-    <sheet name="Belgium_MX" sheetId="14" r:id="rId3"/>
-    <sheet name="Czech_MX" sheetId="15" r:id="rId4"/>
-    <sheet name="Czech" sheetId="13" r:id="rId5"/>
+    <sheet name="Czech" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -100,24 +98,6 @@
   </si>
   <si>
     <t>NGC-3477/T1859</t>
-  </si>
-  <si>
-    <t>MX-BATT</t>
-  </si>
-  <si>
-    <t>MX-BBX</t>
-  </si>
-  <si>
-    <t>MX-BBX-40LED</t>
-  </si>
-  <si>
-    <t>MX-BBX-F</t>
-  </si>
-  <si>
-    <t>MX-DPBBX-40LED 38Ah</t>
-  </si>
-  <si>
-    <t>MX-DPBX</t>
   </si>
 </sst>
 </file>
@@ -767,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02E15EE-8269-44E0-9BD0-D78643E0BD7F}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,280 +775,6 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F35EA8D-AA26-4EB0-86DA-F8846BEF13BF}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="10" t="s">

--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144323B-B110-442C-9B92-5A663DD5297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62456DF3-252D-469B-B5FC-F5DE65D2C56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Portugal" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t>NGC-3477/T1859</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2459</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -639,7 +646,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -856,4 +863,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AF634D-E71E-4495-9A5B-9F30AE371E91}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62456DF3-252D-469B-B5FC-F5DE65D2C56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D7849-B760-4433-91D4-C3BAE5580E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Portugal" sheetId="14" r:id="rId4"/>
+    <sheet name="Slovakia" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3236/T3235</t>
   </si>
 </sst>
 </file>
@@ -869,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AF634D-E71E-4495-9A5B-9F30AE371E91}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,4 +982,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703B75AF-3B3D-4F47-980B-1049529266D5}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D7849-B760-4433-91D4-C3BAE5580E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD46C12-C057-4AEC-B41E-03A53B1F4417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Portugal" sheetId="14" r:id="rId4"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId5"/>
+    <sheet name="Italy" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>NGC-2930/T3236/T3235</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453</t>
   </si>
 </sst>
 </file>
@@ -536,7 +543,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703B75AF-3B3D-4F47-980B-1049529266D5}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1094,4 +1101,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57775231-3EDD-4577-B1A3-239ACD917B4B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD46C12-C057-4AEC-B41E-03A53B1F4417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD5DC3-23D5-425C-A597-C9CB8DA385D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Portugal" sheetId="14" r:id="rId4"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId5"/>
     <sheet name="Italy" sheetId="16" r:id="rId6"/>
+    <sheet name="Spain" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2063</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57775231-3EDD-4577-B1A3-239ACD917B4B}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,4 +1220,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95268959-8516-4DBD-98D2-5AF2D20AE35A}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD5DC3-23D5-425C-A597-C9CB8DA385D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB8B7BD-32FF-4A92-9354-DC171DD0BC54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Slovakia" sheetId="15" r:id="rId5"/>
     <sheet name="Italy" sheetId="16" r:id="rId6"/>
     <sheet name="Spain" sheetId="17" r:id="rId7"/>
+    <sheet name="Netherlands" sheetId="18" r:id="rId8"/>
+    <sheet name="Austria" sheetId="19" r:id="rId9"/>
+    <sheet name="Denmark" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +129,24 @@
   </si>
   <si>
     <t>NGC-3103/T2064/T2063</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -662,6 +683,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB881E9D-D510-4CEC-8E55-7205952D3150}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100301BA-E805-443B-A00F-1C84443A8573}">
   <dimension ref="A1:D13"/>
@@ -1226,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95268959-8516-4DBD-98D2-5AF2D20AE35A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,4 +1464,223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D42EC0F-567E-4E20-BA0B-47AF9ADCC38F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683C66C6-D04C-47C1-910B-4D313DE55EDA}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB8B7BD-32FF-4A92-9354-DC171DD0BC54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A93F87-C4F3-4A93-9019-65ECFAAB6EEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Netherlands" sheetId="18" r:id="rId8"/>
     <sheet name="Austria" sheetId="19" r:id="rId9"/>
     <sheet name="Denmark" sheetId="20" r:id="rId10"/>
+    <sheet name="Russia" sheetId="22" r:id="rId11"/>
+    <sheet name="Finland" sheetId="23" r:id="rId12"/>
+    <sheet name="Hungary" sheetId="24" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -147,6 +150,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2887</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2979</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -795,6 +816,339 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA74033-4F86-47E0-9A9E-045ABCFD34F2}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8588A0-8957-400B-A3F3-7BB6B1BC23B8}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6392C3-1F3F-4A74-A4F3-484238872C7F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100301BA-E805-443B-A00F-1C84443A8573}">
   <dimension ref="A1:D13"/>
@@ -1582,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683C66C6-D04C-47C1-910B-4D313DE55EDA}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A93F87-C4F3-4A93-9019-65ECFAAB6EEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837F033-CE56-4165-8FFA-892E3B2503AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Russia" sheetId="22" r:id="rId11"/>
     <sheet name="Finland" sheetId="23" r:id="rId12"/>
     <sheet name="Hungary" sheetId="24" r:id="rId13"/>
+    <sheet name="Norway" sheetId="25" r:id="rId14"/>
+    <sheet name="Poland" sheetId="26" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -168,6 +170,24 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3085</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3120</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6392C3-1F3F-4A74-A4F3-484238872C7F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1136,6 +1156,248 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA698561-0389-4BA9-B7C2-CC49E34B5CCD}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDC0D2F-9F46-4A1B-88C8-CBE47D2FF472}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1375,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AF634D-E71E-4495-9A5B-9F30AE371E91}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,26 +1714,36 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837F033-CE56-4165-8FFA-892E3B2503AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5791E2-7B33-403D-9011-581730F3A73E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="14" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -1060,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6392C3-1F3F-4A74-A4F3-484238872C7F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,11 +1151,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1174,7 +1184,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDC0D2F-9F46-4A1B-88C8-CBE47D2FF472}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1983,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95268959-8516-4DBD-98D2-5AF2D20AE35A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2074,11 +2084,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5791E2-7B33-403D-9011-581730F3A73E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5C740F-BFF2-4833-B032-A28D9D846568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -726,10 +726,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB881E9D-D510-4CEC-8E55-7205952D3150}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,13 +816,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1769,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703B75AF-3B3D-4F47-980B-1049529266D5}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1861,11 +1871,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1881,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57775231-3EDD-4577-B1A3-239ACD917B4B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,11 +1993,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1995,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95268959-8516-4DBD-98D2-5AF2D20AE35A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
@@ -2114,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D42EC0F-567E-4E20-BA0B-47AF9ADCC38F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2206,11 +2236,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2226,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683C66C6-D04C-47C1-910B-4D313DE55EDA}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,11 +2353,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5C740F-BFF2-4833-B032-A28D9D846568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0283294-D072-4622-A389-F0162E9CF82F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -848,10 +848,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA74033-4F86-47E0-9A9E-045ABCFD34F2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +861,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -939,11 +939,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -959,10 +969,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8588A0-8957-400B-A3F3-7BB6B1BC23B8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +982,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1050,11 +1060,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1781,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703B75AF-3B3D-4F47-980B-1049529266D5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_MZX125_MX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0283294-D072-4622-A389-F0162E9CF82F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F88953-7166-4B91-9B2F-8EEDE6494F9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Hungary" sheetId="24" r:id="rId13"/>
     <sheet name="Norway" sheetId="25" r:id="rId14"/>
     <sheet name="Poland" sheetId="26" r:id="rId15"/>
+    <sheet name="UK" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -188,6 +189,9 @@
   </si>
   <si>
     <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -850,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA74033-4F86-47E0-9A9E-045ABCFD34F2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
@@ -1414,6 +1418,127 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6331EB8-66E6-447E-9078-BB41362ADEEA}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
